--- a/WPFChart/results/201Charts.xlsx
+++ b/WPFChart/results/201Charts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalachik\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\20.1_WPF_Results\WPFChart\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74E1E003-CF3E-4B09-BF5D-369CAEFBE742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2451D824-DAF6-4D18-9CE9-8E16AA4F6509}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F248662-4C65-49F8-845E-56F3151947AF}"/>
   </bookViews>
@@ -30,10 +30,41 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>DX default</t>
+  </si>
+  <si>
+    <t>DX resampled</t>
+  </si>
+  <si>
+    <t>Infragistics</t>
+  </si>
+  <si>
+    <t>SciCharts</t>
+  </si>
+  <si>
+    <t>Telerik</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -61,8 +92,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,6 +380,297 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-15AC-42C7-8DD1-B41B6EE64DB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$1:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-504B-4868-BA14-545ADB72D1E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$1:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-504B-4868-BA14-545ADB72D1E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$1:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1081</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3823</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7951</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10047</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32039</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-504B-4868-BA14-545ADB72D1E1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -791,6 +1114,297 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$25:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$25:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>436008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>540872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1088320</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1002260</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1190144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4024164</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7295288</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10224176</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13486968</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25073592</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A48-430C-B4E2-5762DCB220E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$25:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$25:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>227120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>225212</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>196956</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>407708</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>787576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4701748</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35484</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6268392</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22524</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12582920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3A48-430C-B4E2-5762DCB220E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$25:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$25:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7140576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4561000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4765928</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14382352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23725712</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98992972</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88701816</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>115194204</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>101806056</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>141806056</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3A48-430C-B4E2-5762DCB220E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1223,6 +1837,297 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D07A-49CD-A314-1DFE92C437E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$42:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$42:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1290</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF5A-40C8-9A5B-D968414DCC6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$42:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$42:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AF5A-40C8-9A5B-D968414DCC6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$42:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$42:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2547</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2685</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2760</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2853</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2889</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3030</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3030</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AF5A-40C8-9A5B-D968414DCC6F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1658,6 +2563,297 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7B67-4745-A0D6-4E6287929253}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$60:$A$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$60:$D$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B07-4D61-BAFD-A012AC333D3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$60:$A$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$60:$E$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5B07-4D61-BAFD-A012AC333D3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$60:$A$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$60:$F$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2547</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2685</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2760</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2853</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2889</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3030</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3030</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5B07-4D61-BAFD-A012AC333D3B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4002,16 +5198,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:rowOff>176211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4038,16 +5234,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>14286</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>147636</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4074,15 +5270,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>33336</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>80961</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4110,16 +5306,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>14286</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>128586</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4444,19 +5640,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73A326D-F9B4-42B4-A7F1-C64C4EBA5350}">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="U55" sqref="U55"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1000</v>
       </c>
@@ -4466,8 +5665,17 @@
       <c r="C1">
         <v>65</v>
       </c>
+      <c r="D1">
+        <v>206</v>
+      </c>
+      <c r="E1">
+        <v>48</v>
+      </c>
+      <c r="F1">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -4477,8 +5685,17 @@
       <c r="C2">
         <v>159</v>
       </c>
+      <c r="D2">
+        <v>64</v>
+      </c>
+      <c r="E2">
+        <v>39</v>
+      </c>
+      <c r="F2">
+        <v>129</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20000</v>
       </c>
@@ -4488,8 +5705,17 @@
       <c r="C3">
         <v>282</v>
       </c>
+      <c r="D3">
+        <v>57</v>
+      </c>
+      <c r="E3">
+        <v>31</v>
+      </c>
+      <c r="F3">
+        <v>221</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50000</v>
       </c>
@@ -4499,8 +5725,17 @@
       <c r="C4">
         <v>520</v>
       </c>
+      <c r="D4">
+        <v>79</v>
+      </c>
+      <c r="E4">
+        <v>48</v>
+      </c>
+      <c r="F4">
+        <v>570</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100000</v>
       </c>
@@ -4510,8 +5745,17 @@
       <c r="C5">
         <v>816</v>
       </c>
+      <c r="D5">
+        <v>128</v>
+      </c>
+      <c r="E5">
+        <v>96</v>
+      </c>
+      <c r="F5">
+        <v>1081</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>300000</v>
       </c>
@@ -4521,8 +5765,17 @@
       <c r="C6">
         <v>2453</v>
       </c>
+      <c r="D6">
+        <v>231</v>
+      </c>
+      <c r="E6">
+        <v>157</v>
+      </c>
+      <c r="F6">
+        <v>3823</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>500000</v>
       </c>
@@ -4532,8 +5785,17 @@
       <c r="C7">
         <v>3903</v>
       </c>
+      <c r="D7">
+        <v>307</v>
+      </c>
+      <c r="E7">
+        <v>330</v>
+      </c>
+      <c r="F7">
+        <v>5304</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>750000</v>
       </c>
@@ -4543,8 +5805,17 @@
       <c r="C8">
         <v>5883</v>
       </c>
+      <c r="D8">
+        <v>423</v>
+      </c>
+      <c r="E8">
+        <v>421</v>
+      </c>
+      <c r="F8">
+        <v>7951</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1000000</v>
       </c>
@@ -4554,8 +5825,17 @@
       <c r="C9">
         <v>7777</v>
       </c>
+      <c r="D9">
+        <v>548</v>
+      </c>
+      <c r="E9">
+        <v>517</v>
+      </c>
+      <c r="F9">
+        <v>10047</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2000000</v>
       </c>
@@ -4565,8 +5845,37 @@
       <c r="C10">
         <v>16805</v>
       </c>
+      <c r="D10">
+        <v>1034</v>
+      </c>
+      <c r="E10">
+        <v>989</v>
+      </c>
+      <c r="F10">
+        <v>32039</v>
+      </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1000</v>
       </c>
@@ -4576,8 +5885,17 @@
       <c r="C25">
         <v>1535292</v>
       </c>
+      <c r="D25">
+        <v>436008</v>
+      </c>
+      <c r="E25">
+        <v>227120</v>
+      </c>
+      <c r="F25">
+        <v>7140576</v>
+      </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10000</v>
       </c>
@@ -4587,8 +5905,17 @@
       <c r="C26">
         <v>1789308</v>
       </c>
+      <c r="D26">
+        <v>540872</v>
+      </c>
+      <c r="E26">
+        <v>225212</v>
+      </c>
+      <c r="F26">
+        <v>4561000</v>
+      </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20000</v>
       </c>
@@ -4598,8 +5925,17 @@
       <c r="C27">
         <v>1490128</v>
       </c>
+      <c r="D27">
+        <v>1088320</v>
+      </c>
+      <c r="E27">
+        <v>196956</v>
+      </c>
+      <c r="F27">
+        <v>4765928</v>
+      </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>50000</v>
       </c>
@@ -4609,8 +5945,17 @@
       <c r="C28">
         <v>3976708</v>
       </c>
+      <c r="D28">
+        <v>1002260</v>
+      </c>
+      <c r="E28">
+        <v>407708</v>
+      </c>
+      <c r="F28">
+        <v>14382352</v>
+      </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>100000</v>
       </c>
@@ -4620,8 +5965,17 @@
       <c r="C29">
         <v>6629768</v>
       </c>
+      <c r="D29">
+        <v>1190144</v>
+      </c>
+      <c r="E29">
+        <v>787576</v>
+      </c>
+      <c r="F29">
+        <v>23725712</v>
+      </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>300000</v>
       </c>
@@ -4631,8 +5985,17 @@
       <c r="C30">
         <v>31118280</v>
       </c>
+      <c r="D30">
+        <v>4024164</v>
+      </c>
+      <c r="E30">
+        <v>4701748</v>
+      </c>
+      <c r="F30">
+        <v>98992972</v>
+      </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>500000</v>
       </c>
@@ -4642,8 +6005,17 @@
       <c r="C31">
         <v>18508476</v>
       </c>
+      <c r="D31">
+        <v>7295288</v>
+      </c>
+      <c r="E31">
+        <v>35484</v>
+      </c>
+      <c r="F31">
+        <v>88701816</v>
+      </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>750000</v>
       </c>
@@ -4653,8 +6025,17 @@
       <c r="C32">
         <v>33616064</v>
       </c>
+      <c r="D32">
+        <v>10224176</v>
+      </c>
+      <c r="E32">
+        <v>6268392</v>
+      </c>
+      <c r="F32">
+        <v>115194204</v>
+      </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1000000</v>
       </c>
@@ -4664,8 +6045,17 @@
       <c r="C33">
         <v>17105796</v>
       </c>
+      <c r="D33">
+        <v>13486968</v>
+      </c>
+      <c r="E33">
+        <v>22524</v>
+      </c>
+      <c r="F33">
+        <v>101806056</v>
+      </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2000000</v>
       </c>
@@ -4675,8 +6065,17 @@
       <c r="C34">
         <v>57105796</v>
       </c>
+      <c r="D34">
+        <v>25073592</v>
+      </c>
+      <c r="E34">
+        <v>12582920</v>
+      </c>
+      <c r="F34">
+        <v>141806056</v>
+      </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1000</v>
       </c>
@@ -4686,8 +6085,17 @@
       <c r="C42">
         <v>95</v>
       </c>
+      <c r="D42">
+        <v>310</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>2547</v>
+      </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>10000</v>
       </c>
@@ -4697,8 +6105,17 @@
       <c r="C43">
         <v>114</v>
       </c>
+      <c r="D43">
+        <v>321</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>2583</v>
+      </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>20000</v>
       </c>
@@ -4708,8 +6125,17 @@
       <c r="C44">
         <v>121</v>
       </c>
+      <c r="D44">
+        <v>324</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>2685</v>
+      </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>50000</v>
       </c>
@@ -4719,8 +6145,17 @@
       <c r="C45">
         <v>161</v>
       </c>
+      <c r="D45">
+        <v>368</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>2663</v>
+      </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>100000</v>
       </c>
@@ -4730,8 +6165,17 @@
       <c r="C46">
         <v>241</v>
       </c>
+      <c r="D46">
+        <v>391</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>2760</v>
+      </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>300000</v>
       </c>
@@ -4741,8 +6185,17 @@
       <c r="C47">
         <v>295</v>
       </c>
+      <c r="D47">
+        <v>560</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>2853</v>
+      </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>500000</v>
       </c>
@@ -4752,8 +6205,17 @@
       <c r="C48">
         <v>465</v>
       </c>
+      <c r="D48">
+        <v>700</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>2889</v>
+      </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>750000</v>
       </c>
@@ -4763,8 +6225,17 @@
       <c r="C49">
         <v>522</v>
       </c>
+      <c r="D49">
+        <v>913</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>3030</v>
+      </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1000000</v>
       </c>
@@ -4774,8 +6245,17 @@
       <c r="C50">
         <v>632</v>
       </c>
+      <c r="D50">
+        <v>990</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>3030</v>
+      </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2000000</v>
       </c>
@@ -4785,8 +6265,17 @@
       <c r="C51">
         <v>1102</v>
       </c>
+      <c r="D51">
+        <v>1290</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>3030</v>
+      </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1000</v>
       </c>
@@ -4796,8 +6285,17 @@
       <c r="C60">
         <v>20</v>
       </c>
+      <c r="D60">
+        <v>68</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>2547</v>
+      </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>10000</v>
       </c>
@@ -4807,8 +6305,17 @@
       <c r="C61">
         <v>20</v>
       </c>
+      <c r="D61">
+        <v>114</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>2583</v>
+      </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>20000</v>
       </c>
@@ -4818,8 +6325,17 @@
       <c r="C62">
         <v>20</v>
       </c>
+      <c r="D62">
+        <v>91</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>2685</v>
+      </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>50000</v>
       </c>
@@ -4829,8 +6345,17 @@
       <c r="C63">
         <v>0</v>
       </c>
+      <c r="D63">
+        <v>117</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>2663</v>
+      </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>100000</v>
       </c>
@@ -4840,8 +6365,17 @@
       <c r="C64">
         <v>12</v>
       </c>
+      <c r="D64">
+        <v>134</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>2760</v>
+      </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>300000</v>
       </c>
@@ -4851,8 +6385,17 @@
       <c r="C65">
         <v>20</v>
       </c>
+      <c r="D65">
+        <v>139</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>2853</v>
+      </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>500000</v>
       </c>
@@ -4862,8 +6405,17 @@
       <c r="C66">
         <v>0</v>
       </c>
+      <c r="D66">
+        <v>172</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>2889</v>
+      </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>750000</v>
       </c>
@@ -4873,8 +6425,17 @@
       <c r="C67">
         <v>23</v>
       </c>
+      <c r="D67">
+        <v>210</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>3030</v>
+      </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1000000</v>
       </c>
@@ -4884,8 +6445,17 @@
       <c r="C68">
         <v>22</v>
       </c>
+      <c r="D68">
+        <v>256</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>3030</v>
+      </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2000000</v>
       </c>
@@ -4894,10 +6464,20 @@
       </c>
       <c r="C69">
         <v>25</v>
+      </c>
+      <c r="D69">
+        <v>302</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>3030</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/WPFChart/results/201Charts.xlsx
+++ b/WPFChart/results/201Charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\20.1_WPF_Results\WPFChart\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2451D824-DAF6-4D18-9CE9-8E16AA4F6509}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7727B7-87C8-4DF6-9492-5C3FA3C3F969}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F248662-4C65-49F8-845E-56F3151947AF}"/>
   </bookViews>
@@ -741,6 +741,7 @@
       <c:valAx>
         <c:axId val="718322160"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1472,6 +1473,7 @@
       <c:valAx>
         <c:axId val="786574928"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1996,34 +1998,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2198,6 +2200,7 @@
       <c:valAx>
         <c:axId val="731063376"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2537,7 +2540,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>12</c:v>
@@ -2546,7 +2549,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>23</c:v>
@@ -2722,34 +2725,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2924,6 +2927,7 @@
       <c:valAx>
         <c:axId val="731062720"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5642,8 +5646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73A326D-F9B4-42B4-A7F1-C64C4EBA5350}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Z63" sqref="Z63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6089,7 +6093,7 @@
         <v>310</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F42">
         <v>2547</v>
@@ -6109,7 +6113,7 @@
         <v>321</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F43">
         <v>2583</v>
@@ -6129,7 +6133,7 @@
         <v>324</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F44">
         <v>2685</v>
@@ -6149,7 +6153,7 @@
         <v>368</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F45">
         <v>2663</v>
@@ -6169,7 +6173,7 @@
         <v>391</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F46">
         <v>2760</v>
@@ -6189,7 +6193,7 @@
         <v>560</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F47">
         <v>2853</v>
@@ -6209,7 +6213,7 @@
         <v>700</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F48">
         <v>2889</v>
@@ -6229,7 +6233,7 @@
         <v>913</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F49">
         <v>3030</v>
@@ -6249,7 +6253,7 @@
         <v>990</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F50">
         <v>3030</v>
@@ -6269,7 +6273,7 @@
         <v>1290</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F51">
         <v>3030</v>
@@ -6289,7 +6293,7 @@
         <v>68</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F60">
         <v>2547</v>
@@ -6309,7 +6313,7 @@
         <v>114</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F61">
         <v>2583</v>
@@ -6329,7 +6333,7 @@
         <v>91</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F62">
         <v>2685</v>
@@ -6343,13 +6347,13 @@
         <v>2259</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D63">
         <v>117</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F63">
         <v>2663</v>
@@ -6369,7 +6373,7 @@
         <v>134</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F64">
         <v>2760</v>
@@ -6389,7 +6393,7 @@
         <v>139</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F65">
         <v>2853</v>
@@ -6403,13 +6407,13 @@
         <v>890</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D66">
         <v>172</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F66">
         <v>2889</v>
@@ -6429,7 +6433,7 @@
         <v>210</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F67">
         <v>3030</v>
@@ -6449,7 +6453,7 @@
         <v>256</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F68">
         <v>3030</v>
@@ -6469,7 +6473,7 @@
         <v>302</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F69">
         <v>3030</v>

--- a/WPFChart/results/201Charts.xlsx
+++ b/WPFChart/results/201Charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\20.1_WPF_Results\WPFChart\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7727B7-87C8-4DF6-9492-5C3FA3C3F969}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E80703-CC2B-4F3D-8317-F0E2B35C5726}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F248662-4C65-49F8-845E-56F3151947AF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>DX default</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>Steema</t>
+  </si>
+  <si>
+    <t>Syncfusion</t>
   </si>
 </sst>
 </file>
@@ -663,7 +669,7 @@
                   <c:v>10047</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32039</c:v>
+                  <c:v>20039</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -671,6 +677,202 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-504B-4868-BA14-545ADB72D1E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$1:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1456</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1787</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2449</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3614</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D179-4290-BB63-1D464E764D45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$1:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>686</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1270</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D179-4290-BB63-1D464E764D45}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -741,7 +943,6 @@
       <c:valAx>
         <c:axId val="718322160"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1406,6 +1607,202 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$25:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$25:$G$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>337120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3016700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2951464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6172812</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4316732</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28289148</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>412324</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15616904</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7568856</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89703024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E102-4798-9262-8F7DEF2E0D3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$25:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$25:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>324876</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>524876</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>233288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>176416</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>155056</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5144852</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8491056</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11491056</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19108652</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43039376</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E102-4798-9262-8F7DEF2E0D3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1473,7 +1870,6 @@
       <c:valAx>
         <c:axId val="786574928"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2133,6 +2529,202 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$42:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$42:$G$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1370</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4448</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4067</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6069</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7933</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9933</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-45F4-4205-9254-54D9D2D103F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$42:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$42:$H$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>758</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1435</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-45F4-4205-9254-54D9D2D103F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2200,7 +2792,6 @@
       <c:valAx>
         <c:axId val="731063376"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2860,6 +3451,202 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$60:$A$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$60:$G$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1912</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3519</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6587</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8259</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19527</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19527</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19527</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19527</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19527</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C261-44F0-878E-798E0E01CB8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$60:$A$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$60:$H$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1407</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2915</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3765</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7409</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C261-44F0-878E-798E0E01CB8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2927,7 +3714,6 @@
       <c:valAx>
         <c:axId val="731062720"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5202,16 +5988,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>176211</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5238,16 +6024,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>147636</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>233361</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5274,16 +6060,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>80961</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>223836</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5310,16 +6096,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>128586</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>195261</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5644,10 +6430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73A326D-F9B4-42B4-A7F1-C64C4EBA5350}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Z63" sqref="Z63"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5657,9 +6443,11 @@
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" customWidth="1"/>
     <col min="6" max="6" width="26.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1000</v>
       </c>
@@ -5678,8 +6466,14 @@
       <c r="F1">
         <v>27</v>
       </c>
+      <c r="G1">
+        <v>82</v>
+      </c>
+      <c r="H1">
+        <v>76</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -5698,8 +6492,14 @@
       <c r="F2">
         <v>129</v>
       </c>
+      <c r="G2">
+        <v>79</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20000</v>
       </c>
@@ -5718,8 +6518,14 @@
       <c r="F3">
         <v>221</v>
       </c>
+      <c r="G3">
+        <v>173</v>
+      </c>
+      <c r="H3">
+        <v>33</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50000</v>
       </c>
@@ -5738,8 +6544,14 @@
       <c r="F4">
         <v>570</v>
       </c>
+      <c r="G4">
+        <v>361</v>
+      </c>
+      <c r="H4">
+        <v>66</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100000</v>
       </c>
@@ -5758,8 +6570,14 @@
       <c r="F5">
         <v>1081</v>
       </c>
+      <c r="G5">
+        <v>508</v>
+      </c>
+      <c r="H5">
+        <v>99</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>300000</v>
       </c>
@@ -5778,8 +6596,14 @@
       <c r="F6">
         <v>3823</v>
       </c>
+      <c r="G6">
+        <v>1456</v>
+      </c>
+      <c r="H6">
+        <v>321</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>500000</v>
       </c>
@@ -5798,8 +6622,14 @@
       <c r="F7">
         <v>5304</v>
       </c>
+      <c r="G7">
+        <v>1787</v>
+      </c>
+      <c r="H7">
+        <v>392</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>750000</v>
       </c>
@@ -5818,8 +6648,14 @@
       <c r="F8">
         <v>7951</v>
       </c>
+      <c r="G8">
+        <v>2449</v>
+      </c>
+      <c r="H8">
+        <v>523</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1000000</v>
       </c>
@@ -5838,8 +6674,14 @@
       <c r="F9">
         <v>10047</v>
       </c>
+      <c r="G9">
+        <v>3614</v>
+      </c>
+      <c r="H9">
+        <v>686</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2000000</v>
       </c>
@@ -5856,10 +6698,16 @@
         <v>989</v>
       </c>
       <c r="F10">
-        <v>32039</v>
+        <v>20039</v>
+      </c>
+      <c r="G10">
+        <v>8130</v>
+      </c>
+      <c r="H10">
+        <v>1270</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -5878,8 +6726,14 @@
       <c r="F11" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1000</v>
       </c>
@@ -5898,8 +6752,14 @@
       <c r="F25">
         <v>7140576</v>
       </c>
+      <c r="G25">
+        <v>337120</v>
+      </c>
+      <c r="H25">
+        <v>324876</v>
+      </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10000</v>
       </c>
@@ -5918,8 +6778,14 @@
       <c r="F26">
         <v>4561000</v>
       </c>
+      <c r="G26">
+        <v>3016700</v>
+      </c>
+      <c r="H26">
+        <v>524876</v>
+      </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20000</v>
       </c>
@@ -5938,8 +6804,14 @@
       <c r="F27">
         <v>4765928</v>
       </c>
+      <c r="G27">
+        <v>2951464</v>
+      </c>
+      <c r="H27">
+        <v>233288</v>
+      </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>50000</v>
       </c>
@@ -5958,8 +6830,14 @@
       <c r="F28">
         <v>14382352</v>
       </c>
+      <c r="G28">
+        <v>6172812</v>
+      </c>
+      <c r="H28">
+        <v>176416</v>
+      </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>100000</v>
       </c>
@@ -5978,8 +6856,14 @@
       <c r="F29">
         <v>23725712</v>
       </c>
+      <c r="G29">
+        <v>4316732</v>
+      </c>
+      <c r="H29">
+        <v>155056</v>
+      </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>300000</v>
       </c>
@@ -5998,8 +6882,14 @@
       <c r="F30">
         <v>98992972</v>
       </c>
+      <c r="G30">
+        <v>28289148</v>
+      </c>
+      <c r="H30">
+        <v>5144852</v>
+      </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>500000</v>
       </c>
@@ -6018,8 +6908,14 @@
       <c r="F31">
         <v>88701816</v>
       </c>
+      <c r="G31">
+        <v>412324</v>
+      </c>
+      <c r="H31">
+        <v>8491056</v>
+      </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>750000</v>
       </c>
@@ -6038,8 +6934,14 @@
       <c r="F32">
         <v>115194204</v>
       </c>
+      <c r="G32">
+        <v>15616904</v>
+      </c>
+      <c r="H32">
+        <v>11491056</v>
+      </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1000000</v>
       </c>
@@ -6058,8 +6960,14 @@
       <c r="F33">
         <v>101806056</v>
       </c>
+      <c r="G33">
+        <v>7568856</v>
+      </c>
+      <c r="H33">
+        <v>19108652</v>
+      </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2000000</v>
       </c>
@@ -6078,8 +6986,14 @@
       <c r="F34">
         <v>141806056</v>
       </c>
+      <c r="G34">
+        <v>89703024</v>
+      </c>
+      <c r="H34">
+        <v>43039376</v>
+      </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1000</v>
       </c>
@@ -6098,8 +7012,14 @@
       <c r="F42">
         <v>2547</v>
       </c>
+      <c r="G42">
+        <v>123</v>
+      </c>
+      <c r="H42">
+        <v>56</v>
+      </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>10000</v>
       </c>
@@ -6118,8 +7038,14 @@
       <c r="F43">
         <v>2583</v>
       </c>
+      <c r="G43">
+        <v>415</v>
+      </c>
+      <c r="H43">
+        <v>57</v>
+      </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>20000</v>
       </c>
@@ -6138,8 +7064,14 @@
       <c r="F44">
         <v>2685</v>
       </c>
+      <c r="G44">
+        <v>729</v>
+      </c>
+      <c r="H44">
+        <v>73</v>
+      </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>50000</v>
       </c>
@@ -6158,8 +7090,14 @@
       <c r="F45">
         <v>2663</v>
       </c>
+      <c r="G45">
+        <v>1370</v>
+      </c>
+      <c r="H45">
+        <v>98</v>
+      </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>100000</v>
       </c>
@@ -6178,8 +7116,14 @@
       <c r="F46">
         <v>2760</v>
       </c>
+      <c r="G46">
+        <v>1977</v>
+      </c>
+      <c r="H46">
+        <v>144</v>
+      </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>300000</v>
       </c>
@@ -6198,8 +7142,14 @@
       <c r="F47">
         <v>2853</v>
       </c>
+      <c r="G47">
+        <v>4448</v>
+      </c>
+      <c r="H47">
+        <v>282</v>
+      </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>500000</v>
       </c>
@@ -6218,8 +7168,14 @@
       <c r="F48">
         <v>2889</v>
       </c>
+      <c r="G48">
+        <v>4067</v>
+      </c>
+      <c r="H48">
+        <v>400</v>
+      </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>750000</v>
       </c>
@@ -6238,8 +7194,14 @@
       <c r="F49">
         <v>3030</v>
       </c>
+      <c r="G49">
+        <v>6069</v>
+      </c>
+      <c r="H49">
+        <v>576</v>
+      </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1000000</v>
       </c>
@@ -6258,8 +7220,14 @@
       <c r="F50">
         <v>3030</v>
       </c>
+      <c r="G50">
+        <v>7933</v>
+      </c>
+      <c r="H50">
+        <v>758</v>
+      </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2000000</v>
       </c>
@@ -6278,8 +7246,14 @@
       <c r="F51">
         <v>3030</v>
       </c>
+      <c r="G51">
+        <v>9933</v>
+      </c>
+      <c r="H51">
+        <v>1435</v>
+      </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1000</v>
       </c>
@@ -6298,8 +7272,14 @@
       <c r="F60">
         <v>2547</v>
       </c>
+      <c r="G60">
+        <v>458</v>
+      </c>
+      <c r="H60">
+        <v>187</v>
+      </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>10000</v>
       </c>
@@ -6318,8 +7298,14 @@
       <c r="F61">
         <v>2583</v>
       </c>
+      <c r="G61">
+        <v>1912</v>
+      </c>
+      <c r="H61">
+        <v>254</v>
+      </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>20000</v>
       </c>
@@ -6338,8 +7324,14 @@
       <c r="F62">
         <v>2685</v>
       </c>
+      <c r="G62">
+        <v>3519</v>
+      </c>
+      <c r="H62">
+        <v>361</v>
+      </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>50000</v>
       </c>
@@ -6358,8 +7350,14 @@
       <c r="F63">
         <v>2663</v>
       </c>
+      <c r="G63">
+        <v>6587</v>
+      </c>
+      <c r="H63">
+        <v>458</v>
+      </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>100000</v>
       </c>
@@ -6378,8 +7376,14 @@
       <c r="F64">
         <v>2760</v>
       </c>
+      <c r="G64">
+        <v>8259</v>
+      </c>
+      <c r="H64">
+        <v>709</v>
+      </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>300000</v>
       </c>
@@ -6398,8 +7402,14 @@
       <c r="F65">
         <v>2853</v>
       </c>
+      <c r="G65">
+        <v>19527</v>
+      </c>
+      <c r="H65">
+        <v>1407</v>
+      </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>500000</v>
       </c>
@@ -6418,8 +7428,14 @@
       <c r="F66">
         <v>2889</v>
       </c>
+      <c r="G66">
+        <v>19527</v>
+      </c>
+      <c r="H66">
+        <v>1999</v>
+      </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>750000</v>
       </c>
@@ -6438,8 +7454,14 @@
       <c r="F67">
         <v>3030</v>
       </c>
+      <c r="G67">
+        <v>19527</v>
+      </c>
+      <c r="H67">
+        <v>2915</v>
+      </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1000000</v>
       </c>
@@ -6458,8 +7480,14 @@
       <c r="F68">
         <v>3030</v>
       </c>
+      <c r="G68">
+        <v>19527</v>
+      </c>
+      <c r="H68">
+        <v>3765</v>
+      </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2000000</v>
       </c>
@@ -6477,6 +7505,12 @@
       </c>
       <c r="F69">
         <v>3030</v>
+      </c>
+      <c r="G69">
+        <v>19527</v>
+      </c>
+      <c r="H69">
+        <v>7409</v>
       </c>
     </row>
   </sheetData>

--- a/WPFChart/results/201Charts.xlsx
+++ b/WPFChart/results/201Charts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\20.1_WPF_Results\WPFChart\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E80703-CC2B-4F3D-8317-F0E2B35C5726}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEC33F7-783B-4A37-B765-D86B4D303F5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F248662-4C65-49F8-845E-56F3151947AF}"/>
   </bookViews>
@@ -19,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -98,9 +92,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -198,6 +213,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DX resampled</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -254,34 +280,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>194</c:v>
+                  <c:v>956</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>257</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>396</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>628</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>818</c:v>
+                  <c:v>417</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>956</c:v>
+                  <c:v>419</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>935</c:v>
+                  <c:v>666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1250</c:v>
+                  <c:v>864</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1693</c:v>
+                  <c:v>1116</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2868</c:v>
+                  <c:v>1881</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -295,6 +321,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DX default</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -351,34 +388,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>65</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>159</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>282</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>520</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>816</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2453</c:v>
+                  <c:v>1055</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3903</c:v>
+                  <c:v>1501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5883</c:v>
+                  <c:v>2229</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7777</c:v>
+                  <c:v>2956</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16805</c:v>
+                  <c:v>6176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -392,6 +429,17 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Infragistics</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3"/>
@@ -448,34 +496,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>206</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>57</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>79</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>128</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>231</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>307</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>423</c:v>
+                  <c:v>467</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>548</c:v>
+                  <c:v>615</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1034</c:v>
+                  <c:v>1165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -489,6 +537,17 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SciCharts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4"/>
@@ -545,34 +604,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>48</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>157</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>330</c:v>
+                  <c:v>402</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>421</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>517</c:v>
+                  <c:v>576</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>989</c:v>
+                  <c:v>1120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -586,6 +645,17 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Telerik</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent5"/>
@@ -642,34 +712,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>129</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>221</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>570</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1081</c:v>
+                  <c:v>1421</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3823</c:v>
+                  <c:v>5861</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5304</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7951</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10047</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20039</c:v>
+                  <c:v>5999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -683,6 +744,17 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Steema</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent6"/>
@@ -739,34 +811,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>82</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>173</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>361</c:v>
+                  <c:v>424</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>508</c:v>
+                  <c:v>577</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1456</c:v>
+                  <c:v>1581</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1787</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2449</c:v>
+                  <c:v>2811</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3614</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8130</c:v>
+                  <c:v>4186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -780,6 +849,17 @@
         <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Syncfusion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1">
@@ -838,34 +918,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>76</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>321</c:v>
+                  <c:v>254</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>392</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>523</c:v>
+                  <c:v>556</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>686</c:v>
+                  <c:v>677</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1270</c:v>
+                  <c:v>1370</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1004,6 +1084,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1181,34 +1292,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1544528</c:v>
+                  <c:v>875080</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1819236</c:v>
+                  <c:v>2387704</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1819408</c:v>
+                  <c:v>4378324</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1856260</c:v>
+                  <c:v>8613140</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1061292</c:v>
+                  <c:v>15966868</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1196956</c:v>
+                  <c:v>6428200</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>310812</c:v>
+                  <c:v>6905896</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>181404</c:v>
+                  <c:v>8361844</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>404132</c:v>
+                  <c:v>7665356</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>948664</c:v>
+                  <c:v>10261552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1278,34 +1389,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1535292</c:v>
+                  <c:v>875092</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1789308</c:v>
+                  <c:v>2387400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1490128</c:v>
+                  <c:v>3968460</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3976708</c:v>
+                  <c:v>8304308</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6629768</c:v>
+                  <c:v>15555852</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31118280</c:v>
+                  <c:v>48205420</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18508476</c:v>
+                  <c:v>71444944</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33616064</c:v>
+                  <c:v>112991828</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17105796</c:v>
+                  <c:v>142027916</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>57105796</c:v>
+                  <c:v>283193756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1375,7 +1486,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>436008</c:v>
+                  <c:v>426008</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>540872</c:v>
@@ -1384,13 +1495,13 @@
                   <c:v>1088320</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1002260</c:v>
+                  <c:v>1002228</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1190144</c:v>
+                  <c:v>1190128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4024164</c:v>
+                  <c:v>4024148</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7295288</c:v>
@@ -1402,7 +1513,7 @@
                   <c:v>13486968</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25073592</c:v>
+                  <c:v>25073604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1472,34 +1583,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>227120</c:v>
+                  <c:v>214316</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>225212</c:v>
+                  <c:v>263832</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>196956</c:v>
+                  <c:v>201036</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>407708</c:v>
+                  <c:v>356552</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>787576</c:v>
+                  <c:v>786084</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4701748</c:v>
+                  <c:v>47505</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35484</c:v>
+                  <c:v>416636</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6268392</c:v>
+                  <c:v>916636</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22524</c:v>
+                  <c:v>1416636</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12582920</c:v>
+                  <c:v>12582080</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1569,34 +1680,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7140576</c:v>
+                  <c:v>911436</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4561000</c:v>
+                  <c:v>4711436</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4765928</c:v>
+                  <c:v>4981400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14382352</c:v>
+                  <c:v>14201616</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23725712</c:v>
+                  <c:v>23726688</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98992972</c:v>
+                  <c:v>98993108</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>88701816</c:v>
+                  <c:v>88701688</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>115194204</c:v>
+                  <c:v>115194412</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>101806056</c:v>
+                  <c:v>101805544</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>141806056</c:v>
+                  <c:v>472389000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1666,34 +1777,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>337120</c:v>
+                  <c:v>327412</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3016700</c:v>
+                  <c:v>3016704</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2951464</c:v>
+                  <c:v>2951460</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6172812</c:v>
+                  <c:v>6172808</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4316732</c:v>
+                  <c:v>4316728</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28289148</c:v>
+                  <c:v>28289144</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>412324</c:v>
+                  <c:v>28289144</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15616904</c:v>
+                  <c:v>15616900</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7568856</c:v>
+                  <c:v>15616900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>89703024</c:v>
+                  <c:v>89703152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2103,34 +2214,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>113</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>109</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>262</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>249</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>233</c:v>
+                  <c:v>422</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>250</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>264</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>226</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>264</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>235</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2200,34 +2311,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>114</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>121</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>161</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>241</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>295</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>465</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>522</c:v>
+                  <c:v>566</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>632</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1102</c:v>
+                  <c:v>1828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2297,34 +2408,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>310</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>321</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>324</c:v>
+                  <c:v>498</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>368</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>391</c:v>
+                  <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>560</c:v>
+                  <c:v>662</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>811</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>913</c:v>
+                  <c:v>1037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>990</c:v>
+                  <c:v>1117</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1290</c:v>
+                  <c:v>1442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2491,34 +2602,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2547</c:v>
+                  <c:v>3349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2583</c:v>
+                  <c:v>3392</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2685</c:v>
+                  <c:v>3424</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2663</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2760</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2853</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2889</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3030</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3030</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3030</c:v>
+                  <c:v>3456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2588,34 +2681,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>123</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>415</c:v>
+                  <c:v>446</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>729</c:v>
+                  <c:v>779</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1370</c:v>
+                  <c:v>1552</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1977</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4448</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4067</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6069</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7933</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9933</c:v>
+                  <c:v>2144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2687,34 +2765,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>56</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>144</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>282</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>400</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>576</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>758</c:v>
+                  <c:v>756</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1435</c:v>
+                  <c:v>1468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3025,34 +3103,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>177</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>276</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1014</c:v>
+                  <c:v>937</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2259</c:v>
+                  <c:v>2094</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1259</c:v>
+                  <c:v>757</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>787</c:v>
+                  <c:v>753</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>890</c:v>
+                  <c:v>876</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>835</c:v>
+                  <c:v>916</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>915</c:v>
+                  <c:v>1374</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1036</c:v>
+                  <c:v>1089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3122,34 +3200,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>23</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3219,34 +3297,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>68</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>114</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>117</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>134</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>139</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>172</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>210</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256</c:v>
+                  <c:v>318</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>302</c:v>
+                  <c:v>341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3510,34 +3588,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>458</c:v>
+                  <c:v>470</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1912</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3519</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6587</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8259</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19527</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19527</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19527</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19527</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19527</c:v>
+                  <c:v>3786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3609,34 +3666,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>187</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>254</c:v>
+                  <c:v>274</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>361</c:v>
+                  <c:v>402</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>458</c:v>
+                  <c:v>495</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>709</c:v>
+                  <c:v>814</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1407</c:v>
+                  <c:v>1490</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1999</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2915</c:v>
+                  <c:v>2966</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3765</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7409</c:v>
+                  <c:v>3791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6432,8 +6486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73A326D-F9B4-42B4-A7F1-C64C4EBA5350}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6448,263 +6502,255 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1">
+      <c r="A1" s="2">
         <v>1000</v>
       </c>
-      <c r="B1">
-        <v>194</v>
-      </c>
-      <c r="C1">
-        <v>65</v>
-      </c>
-      <c r="D1">
-        <v>206</v>
-      </c>
-      <c r="E1">
-        <v>48</v>
-      </c>
-      <c r="F1">
-        <v>27</v>
-      </c>
-      <c r="G1">
-        <v>82</v>
-      </c>
-      <c r="H1">
-        <v>76</v>
+      <c r="B1" s="2">
+        <v>956</v>
+      </c>
+      <c r="C1" s="2">
+        <v>86</v>
+      </c>
+      <c r="D1" s="7">
+        <v>256</v>
+      </c>
+      <c r="E1" s="11">
+        <v>185</v>
+      </c>
+      <c r="F1" s="13">
+        <v>22</v>
+      </c>
+      <c r="G1" s="16">
+        <v>144</v>
+      </c>
+      <c r="H1" s="20">
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>10000</v>
       </c>
-      <c r="B2">
-        <v>257</v>
-      </c>
-      <c r="C2">
-        <v>159</v>
-      </c>
-      <c r="D2">
-        <v>64</v>
-      </c>
-      <c r="E2">
-        <v>39</v>
-      </c>
-      <c r="F2">
-        <v>129</v>
-      </c>
-      <c r="G2">
-        <v>79</v>
-      </c>
-      <c r="H2">
-        <v>30</v>
+      <c r="B2" s="2">
+        <v>126</v>
+      </c>
+      <c r="C2" s="2">
+        <v>122</v>
+      </c>
+      <c r="D2" s="7">
+        <v>70</v>
+      </c>
+      <c r="E2" s="11">
+        <v>25</v>
+      </c>
+      <c r="F2" s="13">
+        <v>173</v>
+      </c>
+      <c r="G2" s="16">
+        <v>94</v>
+      </c>
+      <c r="H2" s="20">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>20000</v>
       </c>
-      <c r="B3">
-        <v>396</v>
-      </c>
-      <c r="C3">
-        <v>282</v>
-      </c>
-      <c r="D3">
-        <v>57</v>
-      </c>
-      <c r="E3">
-        <v>31</v>
-      </c>
-      <c r="F3">
-        <v>221</v>
-      </c>
-      <c r="G3">
-        <v>173</v>
-      </c>
-      <c r="H3">
-        <v>33</v>
+      <c r="B3" s="2">
+        <v>146</v>
+      </c>
+      <c r="C3" s="2">
+        <v>128</v>
+      </c>
+      <c r="D3" s="7">
+        <v>64</v>
+      </c>
+      <c r="E3" s="11">
+        <v>51</v>
+      </c>
+      <c r="F3" s="13">
+        <v>266</v>
+      </c>
+      <c r="G3" s="16">
+        <v>184</v>
+      </c>
+      <c r="H3" s="20">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>50000</v>
       </c>
-      <c r="B4">
-        <v>628</v>
-      </c>
-      <c r="C4">
-        <v>520</v>
-      </c>
-      <c r="D4">
-        <v>79</v>
-      </c>
-      <c r="E4">
-        <v>48</v>
-      </c>
-      <c r="F4">
-        <v>570</v>
-      </c>
-      <c r="G4">
-        <v>361</v>
-      </c>
-      <c r="H4">
-        <v>66</v>
+      <c r="B4" s="2">
+        <v>238</v>
+      </c>
+      <c r="C4" s="2">
+        <v>232</v>
+      </c>
+      <c r="D4" s="7">
+        <v>90</v>
+      </c>
+      <c r="E4" s="11">
+        <v>47</v>
+      </c>
+      <c r="F4" s="13">
+        <v>660</v>
+      </c>
+      <c r="G4" s="16">
+        <v>424</v>
+      </c>
+      <c r="H4" s="20">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>100000</v>
       </c>
-      <c r="B5">
-        <v>818</v>
-      </c>
-      <c r="C5">
-        <v>816</v>
-      </c>
-      <c r="D5">
-        <v>128</v>
-      </c>
-      <c r="E5">
-        <v>96</v>
-      </c>
-      <c r="F5">
-        <v>1081</v>
-      </c>
-      <c r="G5">
-        <v>508</v>
-      </c>
-      <c r="H5">
-        <v>99</v>
+      <c r="B5" s="2">
+        <v>417</v>
+      </c>
+      <c r="C5" s="2">
+        <v>355</v>
+      </c>
+      <c r="D5" s="7">
+        <v>142</v>
+      </c>
+      <c r="E5" s="11">
+        <v>109</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1421</v>
+      </c>
+      <c r="G5" s="16">
+        <v>577</v>
+      </c>
+      <c r="H5" s="20">
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>300000</v>
       </c>
-      <c r="B6">
-        <v>956</v>
-      </c>
-      <c r="C6">
-        <v>2453</v>
-      </c>
-      <c r="D6">
-        <v>231</v>
-      </c>
-      <c r="E6">
-        <v>157</v>
-      </c>
-      <c r="F6">
-        <v>3823</v>
-      </c>
-      <c r="G6">
-        <v>1456</v>
-      </c>
-      <c r="H6">
-        <v>321</v>
+      <c r="B6" s="2">
+        <v>419</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1055</v>
+      </c>
+      <c r="D6" s="7">
+        <v>257</v>
+      </c>
+      <c r="E6" s="11">
+        <v>232</v>
+      </c>
+      <c r="F6" s="13">
+        <v>5861</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1581</v>
+      </c>
+      <c r="H6" s="20">
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>500000</v>
       </c>
-      <c r="B7">
-        <v>935</v>
-      </c>
-      <c r="C7">
-        <v>3903</v>
-      </c>
-      <c r="D7">
-        <v>307</v>
-      </c>
-      <c r="E7">
-        <v>330</v>
-      </c>
-      <c r="F7">
-        <v>5304</v>
-      </c>
-      <c r="G7">
-        <v>1787</v>
-      </c>
-      <c r="H7">
-        <v>392</v>
+      <c r="B7" s="2">
+        <v>666</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1501</v>
+      </c>
+      <c r="D7" s="7">
+        <v>346</v>
+      </c>
+      <c r="E7" s="11">
+        <v>402</v>
+      </c>
+      <c r="F7" s="13">
+        <v>5999</v>
+      </c>
+      <c r="G7" s="16">
+        <v>2016</v>
+      </c>
+      <c r="H7" s="20">
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>750000</v>
       </c>
-      <c r="B8">
-        <v>1250</v>
-      </c>
-      <c r="C8">
-        <v>5883</v>
-      </c>
-      <c r="D8">
-        <v>423</v>
-      </c>
-      <c r="E8">
-        <v>421</v>
-      </c>
-      <c r="F8">
-        <v>7951</v>
-      </c>
-      <c r="G8">
-        <v>2449</v>
-      </c>
-      <c r="H8">
-        <v>523</v>
+      <c r="B8" s="2">
+        <v>864</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2229</v>
+      </c>
+      <c r="D8" s="7">
+        <v>467</v>
+      </c>
+      <c r="E8" s="11">
+        <v>432</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="16">
+        <v>2811</v>
+      </c>
+      <c r="H8" s="20">
+        <v>556</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>1000000</v>
       </c>
-      <c r="B9">
-        <v>1693</v>
-      </c>
-      <c r="C9">
-        <v>7777</v>
-      </c>
-      <c r="D9">
-        <v>548</v>
-      </c>
-      <c r="E9">
-        <v>517</v>
-      </c>
-      <c r="F9">
-        <v>10047</v>
-      </c>
-      <c r="G9">
-        <v>3614</v>
-      </c>
-      <c r="H9">
-        <v>686</v>
+      <c r="B9" s="2">
+        <v>1116</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2956</v>
+      </c>
+      <c r="D9" s="7">
+        <v>615</v>
+      </c>
+      <c r="E9" s="11">
+        <v>576</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="16">
+        <v>4186</v>
+      </c>
+      <c r="H9" s="20">
+        <v>677</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>2000000</v>
       </c>
-      <c r="B10">
-        <v>2868</v>
-      </c>
-      <c r="C10">
-        <v>16805</v>
-      </c>
-      <c r="D10">
-        <v>1034</v>
-      </c>
-      <c r="E10">
-        <v>989</v>
-      </c>
-      <c r="F10">
-        <v>20039</v>
-      </c>
-      <c r="G10">
-        <v>8130</v>
-      </c>
-      <c r="H10">
-        <v>1270</v>
+      <c r="B10" s="2">
+        <v>1881</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6176</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1165</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1120</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="20">
+        <v>1370</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -6737,23 +6783,23 @@
       <c r="A25">
         <v>1000</v>
       </c>
-      <c r="B25">
-        <v>1544528</v>
-      </c>
-      <c r="C25">
-        <v>1535292</v>
-      </c>
-      <c r="D25">
-        <v>436008</v>
-      </c>
-      <c r="E25">
-        <v>227120</v>
-      </c>
-      <c r="F25">
-        <v>7140576</v>
-      </c>
-      <c r="G25">
-        <v>337120</v>
+      <c r="B25" s="4">
+        <v>875080</v>
+      </c>
+      <c r="C25" s="3">
+        <v>875092</v>
+      </c>
+      <c r="D25" s="8">
+        <v>426008</v>
+      </c>
+      <c r="E25" s="12">
+        <v>214316</v>
+      </c>
+      <c r="F25" s="14">
+        <v>911436</v>
+      </c>
+      <c r="G25" s="17">
+        <v>327412</v>
       </c>
       <c r="H25">
         <v>324876</v>
@@ -6763,23 +6809,23 @@
       <c r="A26">
         <v>10000</v>
       </c>
-      <c r="B26">
-        <v>1819236</v>
-      </c>
-      <c r="C26">
-        <v>1789308</v>
-      </c>
-      <c r="D26">
+      <c r="B26" s="4">
+        <v>2387704</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2387400</v>
+      </c>
+      <c r="D26" s="8">
         <v>540872</v>
       </c>
-      <c r="E26">
-        <v>225212</v>
-      </c>
-      <c r="F26">
-        <v>4561000</v>
-      </c>
-      <c r="G26">
-        <v>3016700</v>
+      <c r="E26" s="12">
+        <v>263832</v>
+      </c>
+      <c r="F26" s="14">
+        <v>4711436</v>
+      </c>
+      <c r="G26" s="17">
+        <v>3016704</v>
       </c>
       <c r="H26">
         <v>524876</v>
@@ -6789,23 +6835,23 @@
       <c r="A27">
         <v>20000</v>
       </c>
-      <c r="B27">
-        <v>1819408</v>
-      </c>
-      <c r="C27">
-        <v>1490128</v>
-      </c>
-      <c r="D27">
+      <c r="B27" s="4">
+        <v>4378324</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3968460</v>
+      </c>
+      <c r="D27" s="8">
         <v>1088320</v>
       </c>
-      <c r="E27">
-        <v>196956</v>
-      </c>
-      <c r="F27">
-        <v>4765928</v>
-      </c>
-      <c r="G27">
-        <v>2951464</v>
+      <c r="E27" s="12">
+        <v>201036</v>
+      </c>
+      <c r="F27" s="14">
+        <v>4981400</v>
+      </c>
+      <c r="G27" s="17">
+        <v>2951460</v>
       </c>
       <c r="H27">
         <v>233288</v>
@@ -6815,23 +6861,23 @@
       <c r="A28">
         <v>50000</v>
       </c>
-      <c r="B28">
-        <v>1856260</v>
-      </c>
-      <c r="C28">
-        <v>3976708</v>
-      </c>
-      <c r="D28">
-        <v>1002260</v>
-      </c>
-      <c r="E28">
-        <v>407708</v>
-      </c>
-      <c r="F28">
-        <v>14382352</v>
-      </c>
-      <c r="G28">
-        <v>6172812</v>
+      <c r="B28" s="4">
+        <v>8613140</v>
+      </c>
+      <c r="C28" s="3">
+        <v>8304308</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1002228</v>
+      </c>
+      <c r="E28" s="12">
+        <v>356552</v>
+      </c>
+      <c r="F28" s="14">
+        <v>14201616</v>
+      </c>
+      <c r="G28" s="17">
+        <v>6172808</v>
       </c>
       <c r="H28">
         <v>176416</v>
@@ -6841,23 +6887,23 @@
       <c r="A29">
         <v>100000</v>
       </c>
-      <c r="B29">
-        <v>1061292</v>
-      </c>
-      <c r="C29">
-        <v>6629768</v>
-      </c>
-      <c r="D29">
-        <v>1190144</v>
-      </c>
-      <c r="E29">
-        <v>787576</v>
-      </c>
-      <c r="F29">
-        <v>23725712</v>
-      </c>
-      <c r="G29">
-        <v>4316732</v>
+      <c r="B29" s="4">
+        <v>15966868</v>
+      </c>
+      <c r="C29" s="3">
+        <v>15555852</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1190128</v>
+      </c>
+      <c r="E29" s="12">
+        <v>786084</v>
+      </c>
+      <c r="F29" s="14">
+        <v>23726688</v>
+      </c>
+      <c r="G29" s="17">
+        <v>4316728</v>
       </c>
       <c r="H29">
         <v>155056</v>
@@ -6867,23 +6913,23 @@
       <c r="A30">
         <v>300000</v>
       </c>
-      <c r="B30">
-        <v>1196956</v>
-      </c>
-      <c r="C30">
-        <v>31118280</v>
-      </c>
-      <c r="D30">
-        <v>4024164</v>
-      </c>
-      <c r="E30">
-        <v>4701748</v>
-      </c>
-      <c r="F30">
-        <v>98992972</v>
-      </c>
-      <c r="G30">
-        <v>28289148</v>
+      <c r="B30" s="4">
+        <v>6428200</v>
+      </c>
+      <c r="C30" s="3">
+        <v>48205420</v>
+      </c>
+      <c r="D30" s="8">
+        <v>4024148</v>
+      </c>
+      <c r="E30" s="12">
+        <v>47505</v>
+      </c>
+      <c r="F30" s="14">
+        <v>98993108</v>
+      </c>
+      <c r="G30" s="17">
+        <v>28289144</v>
       </c>
       <c r="H30">
         <v>5144852</v>
@@ -6893,23 +6939,23 @@
       <c r="A31">
         <v>500000</v>
       </c>
-      <c r="B31">
-        <v>310812</v>
-      </c>
-      <c r="C31">
-        <v>18508476</v>
-      </c>
-      <c r="D31">
+      <c r="B31" s="4">
+        <v>6905896</v>
+      </c>
+      <c r="C31" s="3">
+        <v>71444944</v>
+      </c>
+      <c r="D31" s="8">
         <v>7295288</v>
       </c>
-      <c r="E31">
-        <v>35484</v>
-      </c>
-      <c r="F31">
-        <v>88701816</v>
-      </c>
-      <c r="G31">
-        <v>412324</v>
+      <c r="E31" s="12">
+        <v>416636</v>
+      </c>
+      <c r="F31" s="14">
+        <v>88701688</v>
+      </c>
+      <c r="G31" s="17">
+        <v>28289144</v>
       </c>
       <c r="H31">
         <v>8491056</v>
@@ -6919,23 +6965,23 @@
       <c r="A32">
         <v>750000</v>
       </c>
-      <c r="B32">
-        <v>181404</v>
-      </c>
-      <c r="C32">
-        <v>33616064</v>
-      </c>
-      <c r="D32">
+      <c r="B32" s="4">
+        <v>8361844</v>
+      </c>
+      <c r="C32" s="3">
+        <v>112991828</v>
+      </c>
+      <c r="D32" s="8">
         <v>10224176</v>
       </c>
-      <c r="E32">
-        <v>6268392</v>
-      </c>
-      <c r="F32">
-        <v>115194204</v>
-      </c>
-      <c r="G32">
-        <v>15616904</v>
+      <c r="E32" s="12">
+        <v>916636</v>
+      </c>
+      <c r="F32" s="14">
+        <v>115194412</v>
+      </c>
+      <c r="G32" s="17">
+        <v>15616900</v>
       </c>
       <c r="H32">
         <v>11491056</v>
@@ -6945,23 +6991,23 @@
       <c r="A33">
         <v>1000000</v>
       </c>
-      <c r="B33">
-        <v>404132</v>
-      </c>
-      <c r="C33">
-        <v>17105796</v>
-      </c>
-      <c r="D33">
+      <c r="B33" s="4">
+        <v>7665356</v>
+      </c>
+      <c r="C33" s="3">
+        <v>142027916</v>
+      </c>
+      <c r="D33" s="8">
         <v>13486968</v>
       </c>
-      <c r="E33">
-        <v>22524</v>
-      </c>
-      <c r="F33">
-        <v>101806056</v>
-      </c>
-      <c r="G33">
-        <v>7568856</v>
+      <c r="E33" s="12">
+        <v>1416636</v>
+      </c>
+      <c r="F33" s="14">
+        <v>101805544</v>
+      </c>
+      <c r="G33" s="17">
+        <v>15616900</v>
       </c>
       <c r="H33">
         <v>19108652</v>
@@ -6971,23 +7017,23 @@
       <c r="A34">
         <v>2000000</v>
       </c>
-      <c r="B34">
-        <v>948664</v>
-      </c>
-      <c r="C34">
-        <v>57105796</v>
-      </c>
-      <c r="D34">
-        <v>25073592</v>
-      </c>
-      <c r="E34">
-        <v>12582920</v>
-      </c>
-      <c r="F34">
-        <v>141806056</v>
-      </c>
-      <c r="G34">
-        <v>89703024</v>
+      <c r="B34" s="4">
+        <v>10261552</v>
+      </c>
+      <c r="C34" s="3">
+        <v>283193756</v>
+      </c>
+      <c r="D34" s="8">
+        <v>25073604</v>
+      </c>
+      <c r="E34" s="12">
+        <v>12582080</v>
+      </c>
+      <c r="F34" s="14">
+        <v>472389000</v>
+      </c>
+      <c r="G34" s="17">
+        <v>89703152</v>
       </c>
       <c r="H34">
         <v>43039376</v>
@@ -6997,274 +7043,252 @@
       <c r="A42">
         <v>1000</v>
       </c>
-      <c r="B42">
-        <v>113</v>
-      </c>
-      <c r="C42">
-        <v>95</v>
-      </c>
-      <c r="D42">
-        <v>310</v>
+      <c r="B42" s="6">
+        <v>117</v>
+      </c>
+      <c r="C42" s="6">
+        <v>118</v>
+      </c>
+      <c r="D42" s="9">
+        <v>359</v>
       </c>
       <c r="E42">
         <v>2</v>
       </c>
-      <c r="F42">
-        <v>2547</v>
-      </c>
-      <c r="G42">
-        <v>123</v>
-      </c>
-      <c r="H42">
-        <v>56</v>
+      <c r="F42" s="15">
+        <v>3349</v>
+      </c>
+      <c r="G42" s="19">
+        <v>137</v>
+      </c>
+      <c r="H42" s="22">
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>10000</v>
       </c>
-      <c r="B43">
-        <v>109</v>
-      </c>
-      <c r="C43">
-        <v>114</v>
-      </c>
-      <c r="D43">
-        <v>321</v>
+      <c r="B43" s="6">
+        <v>123</v>
+      </c>
+      <c r="C43" s="6">
+        <v>129</v>
+      </c>
+      <c r="D43" s="9">
+        <v>352</v>
       </c>
       <c r="E43">
         <v>2</v>
       </c>
-      <c r="F43">
-        <v>2583</v>
-      </c>
-      <c r="G43">
-        <v>415</v>
-      </c>
-      <c r="H43">
-        <v>57</v>
+      <c r="F43" s="15">
+        <v>3392</v>
+      </c>
+      <c r="G43" s="19">
+        <v>446</v>
+      </c>
+      <c r="H43" s="22">
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>20000</v>
       </c>
-      <c r="B44">
-        <v>262</v>
-      </c>
-      <c r="C44">
-        <v>121</v>
-      </c>
-      <c r="D44">
-        <v>324</v>
+      <c r="B44" s="6">
+        <v>269</v>
+      </c>
+      <c r="C44" s="6">
+        <v>168</v>
+      </c>
+      <c r="D44" s="9">
+        <v>498</v>
       </c>
       <c r="E44">
         <v>2</v>
       </c>
-      <c r="F44">
-        <v>2685</v>
-      </c>
-      <c r="G44">
-        <v>729</v>
-      </c>
-      <c r="H44">
-        <v>73</v>
+      <c r="F44" s="15">
+        <v>3424</v>
+      </c>
+      <c r="G44" s="19">
+        <v>779</v>
+      </c>
+      <c r="H44" s="22">
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>50000</v>
       </c>
-      <c r="B45">
-        <v>249</v>
-      </c>
-      <c r="C45">
-        <v>161</v>
-      </c>
-      <c r="D45">
-        <v>368</v>
+      <c r="B45" s="6">
+        <v>399</v>
+      </c>
+      <c r="C45" s="6">
+        <v>163</v>
+      </c>
+      <c r="D45" s="9">
+        <v>423</v>
       </c>
       <c r="E45">
         <v>2</v>
       </c>
-      <c r="F45">
-        <v>2663</v>
-      </c>
-      <c r="G45">
-        <v>1370</v>
-      </c>
-      <c r="H45">
-        <v>98</v>
+      <c r="F45" s="15">
+        <v>3456</v>
+      </c>
+      <c r="G45" s="19">
+        <v>1552</v>
+      </c>
+      <c r="H45" s="22">
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>100000</v>
       </c>
-      <c r="B46">
-        <v>233</v>
-      </c>
-      <c r="C46">
-        <v>241</v>
-      </c>
-      <c r="D46">
-        <v>391</v>
+      <c r="B46" s="6">
+        <v>422</v>
+      </c>
+      <c r="C46" s="6">
+        <v>194</v>
+      </c>
+      <c r="D46" s="9">
+        <v>456</v>
       </c>
       <c r="E46">
         <v>2</v>
       </c>
-      <c r="F46">
-        <v>2760</v>
-      </c>
-      <c r="G46">
-        <v>1977</v>
-      </c>
-      <c r="H46">
-        <v>144</v>
+      <c r="F46" s="15"/>
+      <c r="G46" s="19">
+        <v>2144</v>
+      </c>
+      <c r="H46" s="22">
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>300000</v>
       </c>
-      <c r="B47">
-        <v>250</v>
-      </c>
-      <c r="C47">
-        <v>295</v>
-      </c>
-      <c r="D47">
-        <v>560</v>
+      <c r="B47" s="6">
+        <v>276</v>
+      </c>
+      <c r="C47" s="6">
+        <v>365</v>
+      </c>
+      <c r="D47" s="9">
+        <v>662</v>
       </c>
       <c r="E47">
         <v>2</v>
       </c>
-      <c r="F47">
-        <v>2853</v>
-      </c>
-      <c r="G47">
-        <v>4448</v>
-      </c>
-      <c r="H47">
-        <v>282</v>
+      <c r="F47" s="15"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="22">
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>500000</v>
       </c>
-      <c r="B48">
-        <v>264</v>
-      </c>
-      <c r="C48">
-        <v>465</v>
-      </c>
-      <c r="D48">
-        <v>700</v>
+      <c r="B48" s="6">
+        <v>309</v>
+      </c>
+      <c r="C48" s="6">
+        <v>540</v>
+      </c>
+      <c r="D48" s="9">
+        <v>811</v>
       </c>
       <c r="E48">
         <v>2</v>
       </c>
-      <c r="F48">
-        <v>2889</v>
-      </c>
-      <c r="G48">
-        <v>4067</v>
-      </c>
-      <c r="H48">
-        <v>400</v>
+      <c r="F48" s="15"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="22">
+        <v>411</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>750000</v>
       </c>
-      <c r="B49">
-        <v>226</v>
-      </c>
-      <c r="C49">
-        <v>522</v>
-      </c>
-      <c r="D49">
-        <v>913</v>
+      <c r="B49" s="6">
+        <v>352</v>
+      </c>
+      <c r="C49" s="6">
+        <v>566</v>
+      </c>
+      <c r="D49" s="9">
+        <v>1037</v>
       </c>
       <c r="E49">
         <v>2</v>
       </c>
-      <c r="F49">
-        <v>3030</v>
-      </c>
-      <c r="G49">
-        <v>6069</v>
-      </c>
-      <c r="H49">
-        <v>576</v>
+      <c r="F49" s="15"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="22">
+        <v>580</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1000000</v>
       </c>
-      <c r="B50">
-        <v>264</v>
-      </c>
-      <c r="C50">
-        <v>632</v>
-      </c>
-      <c r="D50">
-        <v>990</v>
+      <c r="B50" s="6">
+        <v>322</v>
+      </c>
+      <c r="C50" s="6">
+        <v>660</v>
+      </c>
+      <c r="D50" s="9">
+        <v>1117</v>
       </c>
       <c r="E50">
         <v>2</v>
       </c>
-      <c r="F50">
-        <v>3030</v>
-      </c>
-      <c r="G50">
-        <v>7933</v>
-      </c>
-      <c r="H50">
-        <v>758</v>
+      <c r="F50" s="15"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="22">
+        <v>756</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2000000</v>
       </c>
-      <c r="B51">
-        <v>235</v>
-      </c>
-      <c r="C51">
-        <v>1102</v>
-      </c>
-      <c r="D51">
-        <v>1290</v>
+      <c r="B51" s="6">
+        <v>336</v>
+      </c>
+      <c r="C51" s="6">
+        <v>1828</v>
+      </c>
+      <c r="D51" s="9">
+        <v>1442</v>
       </c>
       <c r="E51">
         <v>2</v>
       </c>
-      <c r="F51">
-        <v>3030</v>
-      </c>
-      <c r="G51">
-        <v>9933</v>
-      </c>
-      <c r="H51">
-        <v>1435</v>
+      <c r="F51" s="15"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="22">
+        <v>1468</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1000</v>
       </c>
-      <c r="B60">
-        <v>177</v>
-      </c>
-      <c r="C60">
-        <v>20</v>
-      </c>
-      <c r="D60">
-        <v>68</v>
+      <c r="B60" s="5">
+        <v>166</v>
+      </c>
+      <c r="C60" s="5">
+        <v>22</v>
+      </c>
+      <c r="D60" s="10">
+        <v>83</v>
       </c>
       <c r="E60">
         <v>2</v>
@@ -7272,25 +7296,25 @@
       <c r="F60">
         <v>2547</v>
       </c>
-      <c r="G60">
-        <v>458</v>
-      </c>
-      <c r="H60">
-        <v>187</v>
+      <c r="G60" s="18">
+        <v>470</v>
+      </c>
+      <c r="H60" s="21">
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>10000</v>
       </c>
-      <c r="B61">
-        <v>276</v>
-      </c>
-      <c r="C61">
-        <v>20</v>
-      </c>
-      <c r="D61">
-        <v>114</v>
+      <c r="B61" s="5">
+        <v>255</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0</v>
+      </c>
+      <c r="D61" s="10">
+        <v>129</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -7298,25 +7322,25 @@
       <c r="F61">
         <v>2583</v>
       </c>
-      <c r="G61">
-        <v>1912</v>
-      </c>
-      <c r="H61">
-        <v>254</v>
+      <c r="G61" s="18">
+        <v>2010</v>
+      </c>
+      <c r="H61" s="21">
+        <v>274</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>20000</v>
       </c>
-      <c r="B62">
-        <v>1014</v>
-      </c>
-      <c r="C62">
-        <v>20</v>
-      </c>
-      <c r="D62">
-        <v>91</v>
+      <c r="B62" s="5">
+        <v>937</v>
+      </c>
+      <c r="C62" s="5">
+        <v>0</v>
+      </c>
+      <c r="D62" s="10">
+        <v>97</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -7324,25 +7348,25 @@
       <c r="F62">
         <v>2685</v>
       </c>
-      <c r="G62">
-        <v>3519</v>
-      </c>
-      <c r="H62">
-        <v>361</v>
+      <c r="G62" s="18">
+        <v>3786</v>
+      </c>
+      <c r="H62" s="21">
+        <v>402</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>50000</v>
       </c>
-      <c r="B63">
-        <v>2259</v>
-      </c>
-      <c r="C63">
-        <v>2</v>
-      </c>
-      <c r="D63">
-        <v>117</v>
+      <c r="B63" s="5">
+        <v>2094</v>
+      </c>
+      <c r="C63" s="5">
+        <v>1</v>
+      </c>
+      <c r="D63" s="10">
+        <v>134</v>
       </c>
       <c r="E63">
         <v>22</v>
@@ -7350,25 +7374,23 @@
       <c r="F63">
         <v>2663</v>
       </c>
-      <c r="G63">
-        <v>6587</v>
-      </c>
-      <c r="H63">
-        <v>458</v>
+      <c r="G63" s="18"/>
+      <c r="H63" s="21">
+        <v>495</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>100000</v>
       </c>
-      <c r="B64">
-        <v>1259</v>
-      </c>
-      <c r="C64">
-        <v>12</v>
-      </c>
-      <c r="D64">
-        <v>134</v>
+      <c r="B64" s="5">
+        <v>757</v>
+      </c>
+      <c r="C64" s="5">
+        <v>0</v>
+      </c>
+      <c r="D64" s="10">
+        <v>147</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -7376,25 +7398,23 @@
       <c r="F64">
         <v>2760</v>
       </c>
-      <c r="G64">
-        <v>8259</v>
-      </c>
-      <c r="H64">
-        <v>709</v>
+      <c r="G64" s="18"/>
+      <c r="H64" s="21">
+        <v>814</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>300000</v>
       </c>
-      <c r="B65">
-        <v>787</v>
-      </c>
-      <c r="C65">
-        <v>20</v>
-      </c>
-      <c r="D65">
-        <v>139</v>
+      <c r="B65" s="5">
+        <v>753</v>
+      </c>
+      <c r="C65" s="5">
+        <v>0</v>
+      </c>
+      <c r="D65" s="10">
+        <v>156</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -7402,25 +7422,23 @@
       <c r="F65">
         <v>2853</v>
       </c>
-      <c r="G65">
-        <v>19527</v>
-      </c>
-      <c r="H65">
-        <v>1407</v>
+      <c r="G65" s="18"/>
+      <c r="H65" s="21">
+        <v>1490</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>500000</v>
       </c>
-      <c r="B66">
-        <v>890</v>
-      </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-      <c r="D66">
-        <v>172</v>
+      <c r="B66" s="5">
+        <v>876</v>
+      </c>
+      <c r="C66" s="5">
+        <v>20</v>
+      </c>
+      <c r="D66" s="10">
+        <v>194</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -7428,25 +7446,23 @@
       <c r="F66">
         <v>2889</v>
       </c>
-      <c r="G66">
-        <v>19527</v>
-      </c>
-      <c r="H66">
-        <v>1999</v>
+      <c r="G66" s="18"/>
+      <c r="H66" s="21">
+        <v>2018</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>750000</v>
       </c>
-      <c r="B67">
-        <v>835</v>
-      </c>
-      <c r="C67">
-        <v>23</v>
-      </c>
-      <c r="D67">
-        <v>210</v>
+      <c r="B67" s="5">
+        <v>916</v>
+      </c>
+      <c r="C67" s="5">
+        <v>0</v>
+      </c>
+      <c r="D67" s="10">
+        <v>239</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -7454,25 +7470,23 @@
       <c r="F67">
         <v>3030</v>
       </c>
-      <c r="G67">
-        <v>19527</v>
-      </c>
-      <c r="H67">
-        <v>2915</v>
+      <c r="G67" s="18"/>
+      <c r="H67" s="21">
+        <v>2966</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1000000</v>
       </c>
-      <c r="B68">
-        <v>915</v>
-      </c>
-      <c r="C68">
-        <v>22</v>
-      </c>
-      <c r="D68">
-        <v>256</v>
+      <c r="B68" s="5">
+        <v>1374</v>
+      </c>
+      <c r="C68" s="5">
+        <v>0</v>
+      </c>
+      <c r="D68" s="10">
+        <v>318</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -7480,25 +7494,23 @@
       <c r="F68">
         <v>3030</v>
       </c>
-      <c r="G68">
-        <v>19527</v>
-      </c>
-      <c r="H68">
-        <v>3765</v>
+      <c r="G68" s="18"/>
+      <c r="H68" s="21">
+        <v>3791</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2000000</v>
       </c>
-      <c r="B69">
-        <v>1036</v>
-      </c>
-      <c r="C69">
-        <v>25</v>
-      </c>
-      <c r="D69">
-        <v>302</v>
+      <c r="B69" s="5">
+        <v>1089</v>
+      </c>
+      <c r="C69" s="5">
+        <v>0</v>
+      </c>
+      <c r="D69" s="10">
+        <v>341</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -7506,12 +7518,8 @@
       <c r="F69">
         <v>3030</v>
       </c>
-      <c r="G69">
-        <v>19527</v>
-      </c>
-      <c r="H69">
-        <v>7409</v>
-      </c>
+      <c r="G69" s="18"/>
+      <c r="H69" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
